--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhbcHe1nlt0KSWqVkzfEyoUwkbeDg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjwawknSzpENtuf5Hy/xUvLstJIQA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>DATA</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Creazione del documento del progetto e scrittura obbietivi</t>
+  </si>
+  <si>
+    <t>mock up</t>
   </si>
   <si>
     <t>29/09/2022</t>
@@ -94,9 +97,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -272,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -335,6 +339,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -343,7 +350,7 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -715,23 +722,31 @@
       <c r="J3" s="23">
         <v>44833.0</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="20">
         <v>0.0</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="20">
         <v>20.0</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
+      <c r="P3" s="24">
+        <v>44836.0</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="U3" s="17"/>
       <c r="V3" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="20">
         <v>1.0</v>
@@ -740,19 +755,19 @@
         <v>30.0</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20">
         <v>1.0</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>14</v>
@@ -765,14 +780,14 @@
       <c r="J4" s="23">
         <v>44839.0</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="20">
         <v>1.0</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="20">
         <v>0.0</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>20</v>
+      <c r="M4" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="20"/>
@@ -780,7 +795,7 @@
       <c r="R4" s="20"/>
       <c r="S4" s="21"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="26">
+      <c r="V4" s="27">
         <v>44602.0</v>
       </c>
       <c r="W4" s="20">
@@ -790,11 +805,11 @@
         <v>0.0</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>44571.0</v>
       </c>
       <c r="B5" s="20">
@@ -804,7 +819,7 @@
         <v>20.0</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>14</v>
@@ -826,7 +841,7 @@
       <c r="R5" s="20"/>
       <c r="S5" s="21"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="26">
+      <c r="V5" s="27">
         <v>44630.0</v>
       </c>
       <c r="W5" s="20">
@@ -836,11 +851,11 @@
         <v>0.0</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>44630.0</v>
       </c>
       <c r="B6" s="20">
@@ -848,7 +863,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>14</v>
@@ -860,17 +875,17 @@
         <v>14</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="21"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="26">
+      <c r="V6" s="27">
         <v>44661.0</v>
       </c>
       <c r="W6" s="20">
@@ -880,35 +895,35 @@
         <v>0.0</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="21"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="26"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -916,12 +931,12 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="26"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="21"/>
@@ -940,12 +955,12 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="26"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
@@ -998,10 +1013,10 @@
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="U11" s="17"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="I12" s="14"/>
@@ -1015,13 +1030,13 @@
       <c r="R12" s="20"/>
       <c r="S12" s="21"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="I13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
